--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf9</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf9</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H2">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>1.183538470525111</v>
+        <v>0.978697588295</v>
       </c>
       <c r="R2">
-        <v>10.651846234726</v>
+        <v>8.808278294655</v>
       </c>
       <c r="S2">
-        <v>0.04310564144204222</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="T2">
-        <v>0.04310564144204222</v>
+        <v>0.03154869388788046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H3">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.1560210498053334</v>
+        <v>0.119599871804</v>
       </c>
       <c r="R3">
-        <v>1.404189448248</v>
+        <v>1.076398846236</v>
       </c>
       <c r="S3">
-        <v>0.005682440915786875</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="T3">
-        <v>0.005682440915786875</v>
+        <v>0.003855347953955326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H4">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>26.01808573966512</v>
+        <v>0.03333427973633333</v>
       </c>
       <c r="R4">
-        <v>234.1627716569861</v>
+        <v>0.300008517627</v>
       </c>
       <c r="S4">
-        <v>0.9476044106996527</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="T4">
-        <v>0.9476044106996526</v>
+        <v>0.001074543352259254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H5">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I5">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.01995380288511112</v>
+        <v>29.83069981833433</v>
       </c>
       <c r="R5">
-        <v>0.179584225966</v>
+        <v>268.476298365009</v>
       </c>
       <c r="S5">
-        <v>0.0007267372324527561</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="T5">
-        <v>0.0007267372324527561</v>
+        <v>0.9616041035407231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.004084</v>
+        <v>1.083607</v>
       </c>
       <c r="H6">
-        <v>0.012252</v>
+        <v>3.250821</v>
       </c>
       <c r="I6">
-        <v>0.002880769710065529</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.002880769710065529</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>0.003419352142666666</v>
+        <v>0.05947846582533334</v>
       </c>
       <c r="R6">
-        <v>0.03077416928399999</v>
+        <v>0.535306192428</v>
       </c>
       <c r="S6">
-        <v>0.0001245361862724012</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="T6">
-        <v>0.0001245361862724012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.004084</v>
-      </c>
-      <c r="H7">
-        <v>0.012252</v>
-      </c>
-      <c r="I7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.110372</v>
-      </c>
-      <c r="N7">
-        <v>0.331116</v>
-      </c>
-      <c r="O7">
-        <v>0.00569885801333365</v>
-      </c>
-      <c r="P7">
-        <v>0.00569885801333365</v>
-      </c>
-      <c r="Q7">
-        <v>0.0004507592479999999</v>
-      </c>
-      <c r="R7">
-        <v>0.004056833231999999</v>
-      </c>
-      <c r="S7">
-        <v>1.64170975467758E-05</v>
-      </c>
-      <c r="T7">
-        <v>1.64170975467758E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.004084</v>
-      </c>
-      <c r="H8">
-        <v>0.012252</v>
-      </c>
-      <c r="I8">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J8">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>18.40564566666667</v>
-      </c>
-      <c r="N8">
-        <v>55.216937</v>
-      </c>
-      <c r="O8">
-        <v>0.9503421275147966</v>
-      </c>
-      <c r="P8">
-        <v>0.9503421275147965</v>
-      </c>
-      <c r="Q8">
-        <v>0.07516865690266668</v>
-      </c>
-      <c r="R8">
-        <v>0.6765179121239999</v>
-      </c>
-      <c r="S8">
-        <v>0.002737716815143859</v>
-      </c>
-      <c r="T8">
-        <v>0.002737716815143859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.004084</v>
-      </c>
-      <c r="H9">
-        <v>0.012252</v>
-      </c>
-      <c r="I9">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J9">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01411566666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.042347</v>
-      </c>
-      <c r="O9">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="P9">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="Q9">
-        <v>5.764838266666667E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000518835444</v>
-      </c>
-      <c r="S9">
-        <v>2.099611102493733E-06</v>
-      </c>
-      <c r="T9">
-        <v>2.099611102493733E-06</v>
+        <v>0.001917311265181736</v>
       </c>
     </row>
   </sheetData>
